--- a/document/万通需求修改20191029/万通新需求工作计划及耗时统计20191029.xlsx
+++ b/document/万通需求修改20191029/万通新需求工作计划及耗时统计20191029.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="21390" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,10 +258,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,15 +277,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,13 +287,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,6 +300,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -321,7 +360,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,7 +375,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,63 +405,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,25 +430,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,13 +556,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,139 +592,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,6 +831,41 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,21 +889,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -886,17 +899,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,15 +914,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,152 +935,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1143,6 +1136,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1513,27 +1509,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -1825,13 +1821,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="54.625" customWidth="1"/>
@@ -2093,7 +2089,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:11">
       <c r="A17" s="7"/>
       <c r="B17" s="14" t="s">
         <v>41</v>
@@ -2108,6 +2104,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
